--- a/3.1.4_Guide-Spreadsheets.xlsx
+++ b/3.1.4_Guide-Spreadsheets.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26812"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Documents/Project_Increasing real estate management profits/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="40" windowWidth="25600" windowHeight="14320" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16600" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Annual Cash Flows" sheetId="1" r:id="rId1"/>
@@ -26,7 +31,7 @@
     <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="2" hidden="1">0</definedName>
-    <definedName name="solver_opt" localSheetId="2" hidden="1">'Solver Revenue Maximization'!$E$42</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">'Solver Revenue Maximization'!$E$26</definedName>
     <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
@@ -40,7 +45,7 @@
     <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="2" hidden="1">2</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1615,7 +1620,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-NZ"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1627,6 +1632,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1649,6 +1655,15 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'Solver Revenue Maximization'!$B$5:$B$7</c:f>
@@ -1700,11 +1715,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2064592232"/>
-        <c:axId val="2064595288"/>
+        <c:axId val="-2132658800"/>
+        <c:axId val="2136349408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2064592232"/>
+        <c:axId val="-2132658800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1714,12 +1729,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2064595288"/>
+        <c:crossAx val="2136349408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2064595288"/>
+        <c:axId val="2136349408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1730,13 +1745,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2064592232"/>
+        <c:crossAx val="-2132658800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1754,7 +1770,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-NZ"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1766,6 +1782,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1839,11 +1856,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2064620120"/>
-        <c:axId val="2064623080"/>
+        <c:axId val="-2124058656"/>
+        <c:axId val="-2132689568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2064620120"/>
+        <c:axId val="-2124058656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1853,12 +1870,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2064623080"/>
+        <c:crossAx val="-2132689568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2064623080"/>
+        <c:axId val="-2132689568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1869,13 +1886,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2064620120"/>
+        <c:crossAx val="-2124058656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1910,7 +1928,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1948,7 +1966,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2295,13 +2313,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="26900" topLeftCell="K1"/>
       <selection activeCell="E29" sqref="E29"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.5" customWidth="1"/>
     <col min="2" max="2" width="52.1640625" customWidth="1"/>
@@ -2319,12 +2337,12 @@
     <col min="14" max="14" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="129" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="130"/>
       <c r="B2" s="131"/>
       <c r="C2" s="131"/>
@@ -2336,7 +2354,7 @@
       <c r="I2" s="131"/>
       <c r="J2" s="143"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="132"/>
       <c r="B3" s="31" t="s">
         <v>0</v>
@@ -2350,7 +2368,7 @@
       <c r="I3" s="58"/>
       <c r="J3" s="133"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="132"/>
       <c r="B4" s="72" t="s">
         <v>1</v>
@@ -2364,7 +2382,7 @@
       <c r="I4" s="58"/>
       <c r="J4" s="133"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="132"/>
       <c r="B5" s="111" t="s">
         <v>2</v>
@@ -2380,7 +2398,7 @@
       <c r="I5" s="58"/>
       <c r="J5" s="133"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="132"/>
       <c r="B6" s="58"/>
       <c r="C6" s="58"/>
@@ -2392,7 +2410,7 @@
       <c r="I6" s="58"/>
       <c r="J6" s="133"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="132"/>
       <c r="B7" s="58"/>
       <c r="C7" s="137" t="s">
@@ -2412,7 +2430,7 @@
       <c r="I7" s="58"/>
       <c r="J7" s="133"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="132"/>
       <c r="B8" s="10" t="s">
         <v>3</v>
@@ -2434,7 +2452,7 @@
       <c r="I8" s="58"/>
       <c r="J8" s="133"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="132"/>
       <c r="B9" s="33" t="s">
         <v>7</v>
@@ -2448,7 +2466,7 @@
       <c r="I9" s="58"/>
       <c r="J9" s="133"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="132"/>
       <c r="B10" s="35" t="s">
         <v>8</v>
@@ -2474,7 +2492,7 @@
       <c r="I10" s="58"/>
       <c r="J10" s="133"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="132"/>
       <c r="B11" s="33" t="s">
         <v>9</v>
@@ -2488,7 +2506,7 @@
       <c r="I11" s="58"/>
       <c r="J11" s="133"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="132"/>
       <c r="B12" s="35" t="s">
         <v>10</v>
@@ -2514,7 +2532,7 @@
       <c r="I12" s="58"/>
       <c r="J12" s="133"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="132"/>
       <c r="B13" s="33" t="s">
         <v>11</v>
@@ -2540,7 +2558,7 @@
       <c r="I13" s="58"/>
       <c r="J13" s="133"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="132"/>
       <c r="B14" s="35"/>
       <c r="C14" s="23"/>
@@ -2552,7 +2570,7 @@
       <c r="I14" s="58"/>
       <c r="J14" s="133"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="132"/>
       <c r="B15" s="33" t="s">
         <v>12</v>
@@ -2566,7 +2584,7 @@
       <c r="I15" s="58"/>
       <c r="J15" s="133"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="132"/>
       <c r="B16" s="35" t="s">
         <v>13</v>
@@ -2589,7 +2607,7 @@
       <c r="I16" s="58"/>
       <c r="J16" s="133"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="132"/>
       <c r="B17" s="35" t="s">
         <v>14</v>
@@ -2613,7 +2631,7 @@
       <c r="I17" s="58"/>
       <c r="J17" s="133"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="132"/>
       <c r="B18" s="35" t="s">
         <v>15</v>
@@ -2638,7 +2656,7 @@
       <c r="I18" s="58"/>
       <c r="J18" s="133"/>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="132"/>
       <c r="B19" s="35" t="s">
         <v>16</v>
@@ -2663,7 +2681,7 @@
       <c r="I19" s="58"/>
       <c r="J19" s="133"/>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="132"/>
       <c r="B20" s="33" t="s">
         <v>17</v>
@@ -2688,7 +2706,7 @@
       <c r="I20" s="58"/>
       <c r="J20" s="133"/>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="132"/>
       <c r="B21" s="35"/>
       <c r="C21" s="17"/>
@@ -2700,7 +2718,7 @@
       <c r="I21" s="58"/>
       <c r="J21" s="133"/>
     </row>
-    <row r="22" spans="1:17" ht="23" customHeight="1">
+    <row r="22" spans="1:17" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="132"/>
       <c r="B22" s="28" t="s">
         <v>18</v>
@@ -2726,7 +2744,7 @@
       <c r="I22" s="58"/>
       <c r="J22" s="133"/>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="132"/>
       <c r="B23" s="58"/>
       <c r="C23" s="58"/>
@@ -2738,7 +2756,7 @@
       <c r="I23" s="58"/>
       <c r="J23" s="133"/>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="132"/>
       <c r="B24" s="1" t="s">
         <v>19</v>
@@ -2752,7 +2770,7 @@
       <c r="I24" s="58"/>
       <c r="J24" s="133"/>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="132"/>
       <c r="B25" s="2" t="s">
         <v>105</v>
@@ -2775,7 +2793,7 @@
       <c r="J25" s="133"/>
       <c r="N25" s="19"/>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="132"/>
       <c r="B26" s="58"/>
       <c r="C26" s="14">
@@ -2805,7 +2823,7 @@
       <c r="P26" s="17"/>
       <c r="Q26" s="17"/>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="132"/>
       <c r="B27" s="58"/>
       <c r="C27" s="58"/>
@@ -2824,7 +2842,7 @@
       <c r="P27" s="17"/>
       <c r="Q27" s="17"/>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="132"/>
       <c r="B28" s="2" t="s">
         <v>106</v>
@@ -2853,7 +2871,7 @@
       <c r="P28" s="17"/>
       <c r="Q28" s="17"/>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="132"/>
       <c r="B29" s="58"/>
       <c r="C29" s="13">
@@ -2882,7 +2900,7 @@
       <c r="P29" s="17"/>
       <c r="Q29" s="17"/>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="132"/>
       <c r="B30" s="58"/>
       <c r="C30" s="60"/>
@@ -2901,7 +2919,7 @@
       <c r="P30" s="17"/>
       <c r="Q30" s="17"/>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="132"/>
       <c r="B31" s="58"/>
       <c r="C31" s="5" t="s">
@@ -2928,7 +2946,7 @@
       <c r="P31" s="17"/>
       <c r="Q31" s="17"/>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="132"/>
       <c r="B32" s="54" t="s">
         <v>29</v>
@@ -2957,7 +2975,7 @@
       <c r="P32" s="17"/>
       <c r="Q32" s="17"/>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="132"/>
       <c r="B33" s="52" t="s">
         <v>30</v>
@@ -2978,7 +2996,7 @@
       <c r="P33" s="17"/>
       <c r="Q33" s="17"/>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="132"/>
       <c r="B34" s="55" t="s">
         <v>31</v>
@@ -3007,7 +3025,7 @@
       <c r="P34" s="17"/>
       <c r="Q34" s="17"/>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="132"/>
       <c r="B35" s="58"/>
       <c r="C35" s="56">
@@ -3033,7 +3051,7 @@
       <c r="M35" s="26"/>
       <c r="N35" s="27"/>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="132"/>
       <c r="B36" s="58"/>
       <c r="C36" s="60"/>
@@ -3049,7 +3067,7 @@
       <c r="M36" s="26"/>
       <c r="N36" s="27"/>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="132"/>
       <c r="B37" s="58"/>
       <c r="C37" s="58"/>
@@ -3065,7 +3083,7 @@
       <c r="M37" s="26"/>
       <c r="N37" s="27"/>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="132"/>
       <c r="B38" s="58"/>
       <c r="C38" s="58"/>
@@ -3081,7 +3099,7 @@
       <c r="M38" s="26"/>
       <c r="N38" s="27"/>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="132"/>
       <c r="B39" s="1" t="s">
         <v>36</v>
@@ -3099,7 +3117,7 @@
       <c r="M39" s="26"/>
       <c r="N39" s="27"/>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="132"/>
       <c r="B40" s="2" t="s">
         <v>37</v>
@@ -3115,7 +3133,7 @@
       <c r="I40" s="58"/>
       <c r="J40" s="133"/>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="132"/>
       <c r="B41" s="58"/>
       <c r="C41" s="28" t="s">
@@ -3129,7 +3147,7 @@
       <c r="I41" s="58"/>
       <c r="J41" s="133"/>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="132"/>
       <c r="B42" s="58"/>
       <c r="C42" s="58"/>
@@ -3141,7 +3159,7 @@
       <c r="I42" s="58"/>
       <c r="J42" s="133"/>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="132"/>
       <c r="B43" s="2" t="s">
         <v>40</v>
@@ -3157,7 +3175,7 @@
       <c r="I43" s="11"/>
       <c r="J43" s="133"/>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="132"/>
       <c r="B44" s="58"/>
       <c r="C44" s="35" t="s">
@@ -3171,7 +3189,7 @@
       <c r="I44" s="34"/>
       <c r="J44" s="133"/>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="132"/>
       <c r="B45" s="58"/>
       <c r="C45" s="28" t="s">
@@ -3185,7 +3203,7 @@
       <c r="I45" s="70"/>
       <c r="J45" s="133"/>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="132"/>
       <c r="B46" s="58"/>
       <c r="C46" s="58"/>
@@ -3197,7 +3215,7 @@
       <c r="I46" s="58"/>
       <c r="J46" s="133"/>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="132"/>
       <c r="B47" s="3" t="s">
         <v>43</v>
@@ -3211,7 +3229,7 @@
       <c r="I47" s="58"/>
       <c r="J47" s="133"/>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="132"/>
       <c r="B48" s="58"/>
       <c r="C48" s="3" t="s">
@@ -3225,7 +3243,7 @@
       <c r="I48" s="4"/>
       <c r="J48" s="133"/>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="132"/>
       <c r="B49" s="58"/>
       <c r="C49" s="58"/>
@@ -3237,7 +3255,7 @@
       <c r="I49" s="58"/>
       <c r="J49" s="133"/>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="132"/>
       <c r="B50" s="3" t="s">
         <v>45</v>
@@ -3251,7 +3269,7 @@
       <c r="I50" s="58"/>
       <c r="J50" s="133"/>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="132"/>
       <c r="B51" s="58"/>
       <c r="C51" s="71" t="s">
@@ -3265,7 +3283,7 @@
       <c r="I51" s="58"/>
       <c r="J51" s="133"/>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="132"/>
       <c r="B52" s="58"/>
       <c r="C52" s="58"/>
@@ -3277,7 +3295,7 @@
       <c r="I52" s="58"/>
       <c r="J52" s="133"/>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="132"/>
       <c r="B53" s="3" t="s">
         <v>47</v>
@@ -3291,7 +3309,7 @@
       <c r="I53" s="58"/>
       <c r="J53" s="133"/>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="132"/>
       <c r="B54" s="58"/>
       <c r="C54" s="58"/>
@@ -3303,7 +3321,7 @@
       <c r="I54" s="58"/>
       <c r="J54" s="133"/>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="132"/>
       <c r="B55" s="3" t="s">
         <v>48</v>
@@ -3317,7 +3335,7 @@
       <c r="I55" s="58"/>
       <c r="J55" s="133"/>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="132"/>
       <c r="B56" s="58"/>
       <c r="C56" s="31" t="s">
@@ -3331,7 +3349,7 @@
       <c r="I56" s="11"/>
       <c r="J56" s="133"/>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="132"/>
       <c r="B57" s="58"/>
       <c r="C57" s="35" t="s">
@@ -3345,7 +3363,7 @@
       <c r="I57" s="34"/>
       <c r="J57" s="133"/>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="132"/>
       <c r="B58" s="58"/>
       <c r="C58" s="35" t="s">
@@ -3359,7 +3377,7 @@
       <c r="I58" s="34"/>
       <c r="J58" s="133"/>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="132"/>
       <c r="B59" s="58"/>
       <c r="C59" s="28" t="s">
@@ -3373,7 +3391,7 @@
       <c r="I59" s="70"/>
       <c r="J59" s="133"/>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="132"/>
       <c r="B60" s="58"/>
       <c r="C60" s="58"/>
@@ -3385,7 +3403,7 @@
       <c r="I60" s="58"/>
       <c r="J60" s="133"/>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="132"/>
       <c r="B61" s="58"/>
       <c r="C61" s="58"/>
@@ -3397,7 +3415,7 @@
       <c r="I61" s="58"/>
       <c r="J61" s="133"/>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="132"/>
       <c r="B62" s="3" t="s">
         <v>53</v>
@@ -3413,7 +3431,7 @@
       <c r="I62" s="58"/>
       <c r="J62" s="133"/>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="132"/>
       <c r="B63" s="58"/>
       <c r="C63" s="58"/>
@@ -3425,7 +3443,7 @@
       <c r="I63" s="58"/>
       <c r="J63" s="133"/>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="136"/>
       <c r="B64" s="134"/>
       <c r="C64" s="134"/>
@@ -3437,38 +3455,38 @@
       <c r="I64" s="134"/>
       <c r="J64" s="135"/>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
         <v>116</v>
       </c>
       <c r="C67" s="17"/>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B68" s="116" t="s">
         <v>30</v>
       </c>
       <c r="C68" s="114"/>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B69" s="117" t="s">
         <v>117</v>
       </c>
       <c r="C69" s="115"/>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C70" s="8"/>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B71" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C71" s="8"/>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B72" s="9"/>
       <c r="C72" s="8"/>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B73" s="31" t="s">
         <v>97</v>
       </c>
@@ -3477,7 +3495,7 @@
       <c r="E73" s="32"/>
       <c r="F73" s="11"/>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B74" s="35" t="s">
         <v>124</v>
       </c>
@@ -3486,7 +3504,7 @@
       <c r="E74" s="17"/>
       <c r="F74" s="34"/>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B75" s="35" t="s">
         <v>125</v>
       </c>
@@ -3495,14 +3513,14 @@
       <c r="E75" s="17"/>
       <c r="F75" s="34"/>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B76" s="28"/>
       <c r="C76" s="69"/>
       <c r="D76" s="69"/>
       <c r="E76" s="69"/>
       <c r="F76" s="70"/>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>133</v>
       </c>
@@ -3511,11 +3529,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3527,7 +3540,7 @@
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="51.5" customWidth="1"/>
     <col min="3" max="3" width="27.5" customWidth="1"/>
@@ -3537,12 +3550,12 @@
     <col min="7" max="7" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20">
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="129" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="57"/>
       <c r="B2" s="57"/>
       <c r="C2" s="57"/>
@@ -3551,7 +3564,7 @@
       <c r="F2" s="57"/>
       <c r="G2" s="57"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="57"/>
       <c r="B3" s="57"/>
       <c r="C3" s="57"/>
@@ -3560,7 +3573,7 @@
       <c r="F3" s="57"/>
       <c r="G3" s="57"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="57"/>
       <c r="B4" s="57"/>
       <c r="C4" s="57"/>
@@ -3569,7 +3582,7 @@
       <c r="F4" s="57"/>
       <c r="G4" s="57"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="57"/>
       <c r="B5" s="57"/>
       <c r="C5" s="137" t="s">
@@ -3586,7 +3599,7 @@
       </c>
       <c r="G5" s="57"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="57"/>
       <c r="B6" s="10" t="s">
         <v>56</v>
@@ -3605,7 +3618,7 @@
       </c>
       <c r="G6" s="57"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="57"/>
       <c r="B7" s="33" t="s">
         <v>7</v>
@@ -3616,7 +3629,7 @@
       <c r="F7" s="34"/>
       <c r="G7" s="57"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="57"/>
       <c r="B8" s="35" t="s">
         <v>57</v>
@@ -3639,7 +3652,7 @@
       </c>
       <c r="G8" s="57"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="57"/>
       <c r="B9" s="33" t="s">
         <v>9</v>
@@ -3650,7 +3663,7 @@
       <c r="F9" s="34"/>
       <c r="G9" s="57"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="57"/>
       <c r="B10" s="35" t="s">
         <v>58</v>
@@ -3673,7 +3686,7 @@
       </c>
       <c r="G10" s="57"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="57"/>
       <c r="B11" s="33" t="s">
         <v>59</v>
@@ -3696,7 +3709,7 @@
       </c>
       <c r="G11" s="57"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="57"/>
       <c r="B12" s="35"/>
       <c r="C12" s="23"/>
@@ -3705,7 +3718,7 @@
       <c r="F12" s="37"/>
       <c r="G12" s="57"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="57"/>
       <c r="B13" s="33" t="s">
         <v>60</v>
@@ -3716,7 +3729,7 @@
       <c r="F13" s="34"/>
       <c r="G13" s="57"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="57"/>
       <c r="B14" s="151" t="s">
         <v>61</v>
@@ -3738,7 +3751,7 @@
       </c>
       <c r="G14" s="57"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="57"/>
       <c r="B15" s="35" t="s">
         <v>14</v>
@@ -3759,7 +3772,7 @@
       </c>
       <c r="G15" s="57"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="57"/>
       <c r="B16" s="35" t="s">
         <v>15</v>
@@ -3781,7 +3794,7 @@
       </c>
       <c r="G16" s="57"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="57"/>
       <c r="B17" s="35" t="s">
         <v>16</v>
@@ -3803,7 +3816,7 @@
       </c>
       <c r="G17" s="57"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="57"/>
       <c r="B18" s="74" t="s">
         <v>17</v>
@@ -3825,7 +3838,7 @@
       </c>
       <c r="G18" s="57"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="57"/>
       <c r="B19" s="35"/>
       <c r="C19" s="17"/>
@@ -3834,7 +3847,7 @@
       <c r="F19" s="34"/>
       <c r="G19" s="57"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="57"/>
       <c r="B20" s="28" t="s">
         <v>18</v>
@@ -3857,7 +3870,7 @@
       </c>
       <c r="G20" s="57"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="57"/>
       <c r="B21" s="57"/>
       <c r="C21" s="57"/>
@@ -3866,7 +3879,7 @@
       <c r="F21" s="57"/>
       <c r="G21" s="57"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="57"/>
       <c r="B22" s="57"/>
       <c r="C22" s="57"/>
@@ -3875,7 +3888,7 @@
       <c r="F22" s="57"/>
       <c r="G22" s="57"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="57"/>
       <c r="B23" s="2" t="s">
         <v>62</v>
@@ -3894,7 +3907,7 @@
       </c>
       <c r="G23" s="58"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="57"/>
       <c r="B24" s="73">
         <f>E30/5</f>
@@ -3917,7 +3930,7 @@
       </c>
       <c r="G24" s="58"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="57"/>
       <c r="B25" s="57"/>
       <c r="C25" s="57"/>
@@ -3926,7 +3939,7 @@
       <c r="F25" s="57"/>
       <c r="G25" s="58"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="57"/>
       <c r="B26" s="57"/>
       <c r="C26" s="2" t="s">
@@ -3943,7 +3956,7 @@
       </c>
       <c r="G26" s="59"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="57"/>
       <c r="B27" s="112" t="s">
         <v>63</v>
@@ -3964,7 +3977,7 @@
       </c>
       <c r="G27" s="59"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="57"/>
       <c r="B28" s="113" t="s">
         <v>135</v>
@@ -3975,7 +3988,7 @@
       <c r="F28" s="60"/>
       <c r="G28" s="58"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="57"/>
       <c r="B29" s="57"/>
       <c r="C29" s="5" t="s">
@@ -3992,7 +4005,7 @@
       </c>
       <c r="G29" s="60"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="57"/>
       <c r="B30" s="57"/>
       <c r="C30" s="140">
@@ -4009,7 +4022,7 @@
       </c>
       <c r="G30" s="59"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="57"/>
       <c r="B31" s="57"/>
       <c r="C31" s="60"/>
@@ -4018,7 +4031,7 @@
       <c r="F31" s="60"/>
       <c r="G31" s="59"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="57"/>
       <c r="B32" s="57"/>
       <c r="C32" s="5" t="s">
@@ -4035,7 +4048,7 @@
       </c>
       <c r="G32" s="59"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="57"/>
       <c r="B33" s="57"/>
       <c r="C33" s="56">
@@ -4054,7 +4067,7 @@
       </c>
       <c r="G33" s="59"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="57"/>
       <c r="B34" s="57"/>
       <c r="C34" s="60"/>
@@ -4063,7 +4076,7 @@
       <c r="F34" s="60"/>
       <c r="G34" s="59"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="57"/>
       <c r="B35" s="57"/>
       <c r="C35" s="2" t="s">
@@ -4076,7 +4089,7 @@
       <c r="F35" s="60"/>
       <c r="G35" s="59"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="57"/>
       <c r="B36" s="57"/>
       <c r="C36" s="57"/>
@@ -4085,22 +4098,22 @@
       <c r="F36" s="60"/>
       <c r="G36" s="59"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B40" s="116" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B41" s="117" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>133</v>
       </c>
@@ -4108,11 +4121,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4120,11 +4128,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="16.1640625" customWidth="1"/>
@@ -4133,12 +4141,12 @@
     <col min="6" max="6" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20">
+    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="129" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="130"/>
       <c r="B2" s="131"/>
       <c r="C2" s="131"/>
@@ -4152,7 +4160,7 @@
       <c r="K2" s="11"/>
       <c r="L2" s="57"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="132"/>
       <c r="B3" s="31" t="s">
         <v>64</v>
@@ -4170,7 +4178,7 @@
       <c r="K3" s="34"/>
       <c r="L3" s="57"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="132"/>
       <c r="B4" s="35" t="s">
         <v>66</v>
@@ -4192,7 +4200,7 @@
       <c r="K4" s="34"/>
       <c r="L4" s="57"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="132"/>
       <c r="B5" s="96">
         <v>100</v>
@@ -4216,7 +4224,7 @@
       <c r="K5" s="34"/>
       <c r="L5" s="57"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="132"/>
       <c r="B6" s="96">
         <v>150</v>
@@ -4240,7 +4248,7 @@
       <c r="K6" s="34"/>
       <c r="L6" s="57"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="132"/>
       <c r="B7" s="97">
         <v>200</v>
@@ -4264,7 +4272,7 @@
       <c r="K7" s="34"/>
       <c r="L7" s="57"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="132"/>
       <c r="B8" s="58"/>
       <c r="C8" s="58"/>
@@ -4278,7 +4286,7 @@
       <c r="K8" s="34"/>
       <c r="L8" s="57"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="132"/>
       <c r="B9" s="58"/>
       <c r="C9" s="58"/>
@@ -4292,7 +4300,7 @@
       <c r="K9" s="34"/>
       <c r="L9" s="57"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="132"/>
       <c r="B10" s="31" t="s">
         <v>64</v>
@@ -4310,7 +4318,7 @@
       <c r="K10" s="34"/>
       <c r="L10" s="57"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="132"/>
       <c r="B11" s="35" t="s">
         <v>70</v>
@@ -4328,7 +4336,7 @@
       <c r="K11" s="34"/>
       <c r="L11" s="57"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="132"/>
       <c r="B12" s="96">
         <f>B5</f>
@@ -4348,7 +4356,7 @@
       <c r="K12" s="34"/>
       <c r="L12" s="57"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="132"/>
       <c r="B13" s="96">
         <f t="shared" ref="B13:B14" si="2">B6</f>
@@ -4368,7 +4376,7 @@
       <c r="K13" s="34"/>
       <c r="L13" s="57"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="132"/>
       <c r="B14" s="97">
         <f t="shared" si="2"/>
@@ -4388,7 +4396,7 @@
       <c r="K14" s="34"/>
       <c r="L14" s="57"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="132"/>
       <c r="B15" s="60"/>
       <c r="C15" s="60"/>
@@ -4402,7 +4410,7 @@
       <c r="K15" s="34"/>
       <c r="L15" s="57"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="132"/>
       <c r="B16" s="3" t="s">
         <v>71</v>
@@ -4418,13 +4426,13 @@
       <c r="K16" s="34"/>
       <c r="L16" s="57"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="132"/>
       <c r="B17" s="31" t="s">
         <v>128</v>
       </c>
       <c r="C17" s="11">
-        <v>-4.0000000000000001E-3</v>
+        <v>-0.01</v>
       </c>
       <c r="D17" s="58"/>
       <c r="E17" s="58"/>
@@ -4436,13 +4444,13 @@
       <c r="K17" s="34"/>
       <c r="L17" s="57"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="132"/>
       <c r="B18" s="28" t="s">
         <v>129</v>
       </c>
       <c r="C18" s="70">
-        <v>1.3</v>
+        <v>0.99</v>
       </c>
       <c r="D18" s="58"/>
       <c r="E18" s="58"/>
@@ -4454,7 +4462,7 @@
       <c r="K18" s="34"/>
       <c r="L18" s="57"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="132"/>
       <c r="B19" s="58"/>
       <c r="C19" s="58"/>
@@ -4468,7 +4476,7 @@
       <c r="K19" s="133"/>
       <c r="L19" s="57"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="132"/>
       <c r="B20" s="31" t="s">
         <v>72</v>
@@ -4484,7 +4492,7 @@
       <c r="K20" s="133"/>
       <c r="L20" s="57"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="132"/>
       <c r="B21" s="35" t="s">
         <v>66</v>
@@ -4502,7 +4510,7 @@
       <c r="K21" s="133"/>
       <c r="L21" s="57"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="132"/>
       <c r="B22" s="35" t="s">
         <v>73</v>
@@ -4524,7 +4532,7 @@
       <c r="K22" s="34"/>
       <c r="L22" s="57"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="132"/>
       <c r="B23" s="101">
         <f>B5</f>
@@ -4532,15 +4540,15 @@
       </c>
       <c r="C23" s="102">
         <f>(B23*C$17) +C$18</f>
-        <v>0.9</v>
+        <v>-1.0000000000000009E-2</v>
       </c>
       <c r="D23" s="18">
         <f>B23*C23</f>
-        <v>90</v>
+        <v>-1.0000000000000009</v>
       </c>
       <c r="E23" s="37">
         <f>D23*365</f>
-        <v>32850</v>
+        <v>-365.00000000000034</v>
       </c>
       <c r="F23" s="58"/>
       <c r="G23" s="17"/>
@@ -4550,22 +4558,22 @@
       <c r="K23" s="34"/>
       <c r="L23" s="57"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="132"/>
       <c r="B24" s="103">
         <v>150</v>
       </c>
       <c r="C24" s="102">
         <f>(B24*C$17) +C$18</f>
-        <v>0.70000000000000007</v>
+        <v>-0.51</v>
       </c>
       <c r="D24" s="104">
         <f>B24*C24</f>
-        <v>105.00000000000001</v>
+        <v>-76.5</v>
       </c>
       <c r="E24" s="105">
         <f>D24*365</f>
-        <v>38325.000000000007</v>
+        <v>-27922.5</v>
       </c>
       <c r="F24" s="58"/>
       <c r="G24" s="17"/>
@@ -4575,7 +4583,7 @@
       <c r="K24" s="34"/>
       <c r="L24" s="57"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="132"/>
       <c r="B25" s="97">
         <f>B7</f>
@@ -4583,15 +4591,15 @@
       </c>
       <c r="C25" s="106">
         <f>(B25*C$17) +C$18</f>
-        <v>0.5</v>
+        <v>-1.01</v>
       </c>
       <c r="D25" s="99">
         <f>B25*C25</f>
-        <v>100</v>
+        <v>-202</v>
       </c>
       <c r="E25" s="100">
         <f t="shared" ref="E25" si="4">D25*365</f>
-        <v>36500</v>
+        <v>-73730</v>
       </c>
       <c r="F25" s="58"/>
       <c r="G25" s="17"/>
@@ -4601,22 +4609,22 @@
       <c r="K25" s="34"/>
       <c r="L25" s="57"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="132"/>
       <c r="B26" s="107">
-        <v>150</v>
+        <v>49.499999903944683</v>
       </c>
       <c r="C26" s="108">
         <f>(B26*C$17) +C$18</f>
-        <v>0.70000000000000007</v>
+        <v>0.49500000096055313</v>
       </c>
       <c r="D26" s="109">
         <f>B26*C26</f>
-        <v>105.00000000000001</v>
+        <v>24.502499999999998</v>
       </c>
       <c r="E26" s="110">
         <f>D26*365</f>
-        <v>38325.000000000007</v>
+        <v>8943.4124999999985</v>
       </c>
       <c r="F26" s="58"/>
       <c r="G26" s="17"/>
@@ -4626,7 +4634,7 @@
       <c r="K26" s="34"/>
       <c r="L26" s="57"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="132"/>
       <c r="B27" s="58"/>
       <c r="C27" s="58"/>
@@ -4640,7 +4648,7 @@
       <c r="K27" s="34"/>
       <c r="L27" s="57"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="132"/>
       <c r="B28" s="2" t="s">
         <v>74</v>
@@ -4656,7 +4664,7 @@
       <c r="K28" s="34"/>
       <c r="L28" s="57"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="132"/>
       <c r="B29" s="31" t="s">
         <v>75</v>
@@ -4672,7 +4680,7 @@
       <c r="K29" s="34"/>
       <c r="L29" s="57"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="132"/>
       <c r="B30" s="35" t="s">
         <v>139</v>
@@ -4688,7 +4696,7 @@
       <c r="K30" s="34"/>
       <c r="L30" s="57"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="132"/>
       <c r="B31" s="28" t="s">
         <v>138</v>
@@ -4704,7 +4712,7 @@
       <c r="K31" s="34"/>
       <c r="L31" s="57"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="132"/>
       <c r="B32" s="58"/>
       <c r="C32" s="58"/>
@@ -4718,7 +4726,7 @@
       <c r="K32" s="133"/>
       <c r="L32" s="57"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="132"/>
       <c r="B33" s="58"/>
       <c r="C33" s="58"/>
@@ -4732,7 +4740,7 @@
       <c r="K33" s="133"/>
       <c r="L33" s="57"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="132"/>
       <c r="B34" s="120" t="s">
         <v>136</v>
@@ -4748,7 +4756,7 @@
       <c r="K34" s="133"/>
       <c r="L34" s="57"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="132"/>
       <c r="B35" s="123" t="s">
         <v>137</v>
@@ -4764,7 +4772,7 @@
       <c r="K35" s="133"/>
       <c r="L35" s="57"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="132"/>
       <c r="B36" s="124" t="s">
         <v>104</v>
@@ -4779,7 +4787,7 @@
       <c r="K36" s="133"/>
       <c r="L36" s="57"/>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="132"/>
       <c r="B37" s="123" t="s">
         <v>115</v>
@@ -4795,7 +4803,7 @@
       <c r="K37" s="133"/>
       <c r="L37" s="57"/>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="132"/>
       <c r="B38" s="126" t="s">
         <v>130</v>
@@ -4811,7 +4819,7 @@
       <c r="K38" s="133"/>
       <c r="L38" s="57"/>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="132"/>
       <c r="B39" s="58"/>
       <c r="C39" s="58"/>
@@ -4825,7 +4833,7 @@
       <c r="K39" s="133"/>
       <c r="L39" s="57"/>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="132"/>
       <c r="B40" s="58"/>
       <c r="C40" s="58"/>
@@ -4839,7 +4847,7 @@
       <c r="K40" s="133"/>
       <c r="L40" s="57"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="132"/>
       <c r="B41" s="137" t="s">
         <v>116</v>
@@ -4855,7 +4863,7 @@
       <c r="K41" s="133"/>
       <c r="L41" s="57"/>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="132"/>
       <c r="B42" s="146" t="s">
         <v>30</v>
@@ -4871,7 +4879,7 @@
       <c r="K42" s="133"/>
       <c r="L42" s="57"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="132"/>
       <c r="B43" s="147" t="s">
         <v>117</v>
@@ -4887,7 +4895,7 @@
       <c r="K43" s="133"/>
       <c r="L43" s="57"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="132"/>
       <c r="B44" s="58"/>
       <c r="C44" s="58"/>
@@ -4901,7 +4909,7 @@
       <c r="K44" s="133"/>
       <c r="L44" s="57"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="132"/>
       <c r="B45" s="58"/>
       <c r="C45" s="58"/>
@@ -4915,7 +4923,7 @@
       <c r="K45" s="133"/>
       <c r="L45" s="57"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="136"/>
       <c r="B46" s="134"/>
       <c r="C46" s="134"/>
@@ -4933,11 +4941,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4946,10 +4949,10 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="51.83203125" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
@@ -4960,12 +4963,12 @@
     <col min="8" max="8" width="6.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20">
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="129" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="130"/>
       <c r="B2" s="131"/>
       <c r="C2" s="131"/>
@@ -4976,7 +4979,7 @@
       <c r="H2" s="131"/>
       <c r="I2" s="143"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="132"/>
       <c r="B3" s="31" t="s">
         <v>100</v>
@@ -4989,7 +4992,7 @@
       <c r="H3" s="11"/>
       <c r="I3" s="133"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="132"/>
       <c r="B4" s="35" t="s">
         <v>76</v>
@@ -5004,14 +5007,14 @@
       <c r="H4" s="34"/>
       <c r="I4" s="133"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="132"/>
       <c r="B5" s="35" t="s">
         <v>77</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="76">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
@@ -5019,7 +5022,7 @@
       <c r="H5" s="34"/>
       <c r="I5" s="133"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="132"/>
       <c r="B6" s="35" t="s">
         <v>78</v>
@@ -5035,7 +5038,7 @@
       <c r="H6" s="34"/>
       <c r="I6" s="133"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="132"/>
       <c r="B7" s="35"/>
       <c r="C7" s="17"/>
@@ -5046,13 +5049,13 @@
       <c r="H7" s="34"/>
       <c r="I7" s="133"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="132"/>
       <c r="B8" s="35" t="s">
         <v>79</v>
       </c>
       <c r="C8" s="76">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
@@ -5061,7 +5064,7 @@
       <c r="H8" s="34"/>
       <c r="I8" s="133"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="132"/>
       <c r="B9" s="35" t="s">
         <v>80</v>
@@ -5076,7 +5079,7 @@
       <c r="H9" s="34"/>
       <c r="I9" s="133"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="132"/>
       <c r="B10" s="35" t="s">
         <v>82</v>
@@ -5086,7 +5089,7 @@
       </c>
       <c r="D10" s="23">
         <f>D5</f>
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>84</v>
@@ -5100,11 +5103,11 @@
       </c>
       <c r="H10" s="77">
         <f>D10-F10</f>
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="I10" s="133"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="132"/>
       <c r="B11" s="78" t="s">
         <v>85</v>
@@ -5112,7 +5115,7 @@
       <c r="C11" s="23"/>
       <c r="D11" s="23">
         <f>C8</f>
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="E11" s="23" t="s">
         <v>86</v>
@@ -5126,11 +5129,11 @@
       </c>
       <c r="H11" s="77">
         <f>C8-D4</f>
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="I11" s="133"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="152"/>
       <c r="B12" s="35" t="s">
         <v>87</v>
@@ -5138,7 +5141,7 @@
       <c r="C12" s="17"/>
       <c r="D12" s="79">
         <f>C6*H11/H10</f>
-        <v>0.42666666666666669</v>
+        <v>0.30666666666666664</v>
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="23"/>
@@ -5146,7 +5149,7 @@
       <c r="H12" s="34"/>
       <c r="I12" s="133"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="132"/>
       <c r="B13" s="28" t="s">
         <v>88</v>
@@ -5154,20 +5157,20 @@
       <c r="C13" s="80"/>
       <c r="D13" s="84">
         <f>D12+0.1</f>
-        <v>0.52666666666666673</v>
+        <v>0.40666666666666662</v>
       </c>
       <c r="E13" s="81" t="s">
         <v>98</v>
       </c>
       <c r="F13" s="118">
         <f>D13</f>
-        <v>0.52666666666666673</v>
+        <v>0.40666666666666662</v>
       </c>
       <c r="G13" s="69"/>
       <c r="H13" s="82"/>
       <c r="I13" s="133"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="132"/>
       <c r="B14" s="58"/>
       <c r="C14" s="67"/>
@@ -5178,7 +5181,7 @@
       <c r="H14" s="95"/>
       <c r="I14" s="133"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="132"/>
       <c r="B15" s="31" t="s">
         <v>89</v>
@@ -5191,14 +5194,14 @@
       <c r="H15" s="58"/>
       <c r="I15" s="133"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="132"/>
       <c r="B16" s="35" t="s">
         <v>90</v>
       </c>
       <c r="C16" s="18">
         <f>D5-D4</f>
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="D16" s="83"/>
       <c r="E16" s="85"/>
@@ -5207,14 +5210,14 @@
       <c r="H16" s="58"/>
       <c r="I16" s="133"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="132"/>
       <c r="B17" s="35" t="s">
         <v>91</v>
       </c>
       <c r="C17" s="86">
         <f>C16*1.25</f>
-        <v>187.5</v>
+        <v>375</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="34"/>
@@ -5223,14 +5226,14 @@
       <c r="H17" s="58"/>
       <c r="I17" s="133"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="132"/>
       <c r="B18" s="35" t="s">
         <v>99</v>
       </c>
       <c r="C18" s="86">
         <f>D4- (C16/8)</f>
-        <v>81.25</v>
+        <v>62.5</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="34"/>
@@ -5239,7 +5242,7 @@
       <c r="H18" s="58"/>
       <c r="I18" s="133"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="132"/>
       <c r="B19" s="35" t="s">
         <v>126</v>
@@ -5254,49 +5257,49 @@
       <c r="H19" s="58"/>
       <c r="I19" s="133"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="132"/>
       <c r="B20" s="78" t="s">
         <v>127</v>
       </c>
       <c r="C20" s="86">
         <f>(C19 - C18)</f>
-        <v>98.75</v>
+        <v>117.5</v>
       </c>
       <c r="D20" s="87" t="s">
         <v>92</v>
       </c>
       <c r="E20" s="88">
         <f>1.25*C16</f>
-        <v>187.5</v>
+        <v>375</v>
       </c>
       <c r="F20" s="58"/>
       <c r="G20" s="58"/>
       <c r="H20" s="58"/>
       <c r="I20" s="133"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="132"/>
       <c r="B21" s="28" t="s">
         <v>93</v>
       </c>
       <c r="C21" s="89">
         <f>C20/E20</f>
-        <v>0.52666666666666662</v>
+        <v>0.31333333333333335</v>
       </c>
       <c r="D21" s="69" t="s">
         <v>83</v>
       </c>
       <c r="E21" s="119">
         <f>C21</f>
-        <v>0.52666666666666662</v>
+        <v>0.31333333333333335</v>
       </c>
       <c r="F21" s="58"/>
       <c r="G21" s="58"/>
       <c r="H21" s="58"/>
       <c r="I21" s="133"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="132"/>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
@@ -5307,7 +5310,7 @@
       <c r="H22" s="58"/>
       <c r="I22" s="133"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="132"/>
       <c r="B23" s="31" t="s">
         <v>101</v>
@@ -5320,14 +5323,14 @@
       <c r="H23" s="58"/>
       <c r="I23" s="133"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="132"/>
       <c r="B24" s="35" t="s">
         <v>94</v>
       </c>
       <c r="C24" s="91">
         <f>C21</f>
-        <v>0.52666666666666662</v>
+        <v>0.31333333333333335</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="34"/>
@@ -5336,14 +5339,14 @@
       <c r="H24" s="58"/>
       <c r="I24" s="133"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="132"/>
       <c r="B25" s="35" t="s">
         <v>95</v>
       </c>
       <c r="C25" s="79">
         <f>(C24-0.1)/0.8</f>
-        <v>0.53333333333333321</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="D25" s="17"/>
       <c r="E25" s="34"/>
@@ -5352,28 +5355,28 @@
       <c r="H25" s="58"/>
       <c r="I25" s="133"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="132"/>
       <c r="B26" s="35" t="s">
         <v>102</v>
       </c>
       <c r="C26" s="23">
         <f>D5-D4</f>
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="D26" s="17" t="s">
         <v>83</v>
       </c>
       <c r="E26" s="36">
         <f>C26*C25</f>
-        <v>79.999999999999986</v>
+        <v>80</v>
       </c>
       <c r="F26" s="58"/>
       <c r="G26" s="58"/>
       <c r="H26" s="58"/>
       <c r="I26" s="133"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="132"/>
       <c r="B27" s="28" t="s">
         <v>103</v>
@@ -5394,7 +5397,7 @@
       <c r="H27" s="58"/>
       <c r="I27" s="133"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="132"/>
       <c r="B28" s="58"/>
       <c r="C28" s="58"/>
@@ -5405,7 +5408,7 @@
       <c r="H28" s="58"/>
       <c r="I28" s="133"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="132"/>
       <c r="B29" s="58"/>
       <c r="C29" s="58"/>
@@ -5416,7 +5419,7 @@
       <c r="H29" s="58"/>
       <c r="I29" s="133"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="132"/>
       <c r="B30" s="58"/>
       <c r="C30" s="58"/>
@@ -5427,7 +5430,7 @@
       <c r="H30" s="58"/>
       <c r="I30" s="133"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="132"/>
       <c r="B31" s="148" t="s">
         <v>116</v>
@@ -5440,7 +5443,7 @@
       <c r="H31" s="58"/>
       <c r="I31" s="133"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="132"/>
       <c r="B32" s="116" t="s">
         <v>30</v>
@@ -5453,7 +5456,7 @@
       <c r="H32" s="58"/>
       <c r="I32" s="133"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="132"/>
       <c r="B33" s="117" t="s">
         <v>117</v>
@@ -5466,7 +5469,7 @@
       <c r="H33" s="58"/>
       <c r="I33" s="133"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="136"/>
       <c r="B34" s="134"/>
       <c r="C34" s="134"/>
@@ -5479,10 +5482,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/3.1.4_Guide-Spreadsheets.xlsx
+++ b/3.1.4_Guide-Spreadsheets.xlsx
@@ -4128,7 +4128,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
